--- a/fia/20210826/Exerccios.xlsx
+++ b/fia/20210826/Exerccios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210826\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B8791-D03F-46D5-850F-2C59DDBD3AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB47E9-B4B1-4DF8-97FF-AA70E542F475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" xr2:uid="{37FD4B97-62F8-48BB-A71C-FA5F0424ECB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{37FD4B97-62F8-48BB-A71C-FA5F0424ECB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sinistro de automoveis" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>X2_alfa:  7,81</t>
   </si>
   <si>
-    <t>Como X2_alfa é maior que o X2, significa que rejeita a H0, portanto há relação entre classe social e sinistro</t>
+    <t>Como o x2 é menor que o x2_alfa, a classe social não é um fator influente para isso</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,11 +696,11 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <f>(B8-B16)^2/B16</f>
+        <f t="shared" ref="B23:C26" si="0">(B8-B16)^2/B16</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="C23">
-        <f>(C8-C16)^2/C16</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -709,11 +709,11 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <f>(B9-B17)^2/B17</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="C24">
-        <f>(C9-C17)^2/C17</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -722,11 +722,11 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <f>(B10-B18)^2/B18</f>
+        <f t="shared" si="0"/>
         <v>0.23684210526315788</v>
       </c>
       <c r="C25">
-        <f>(C10-C18)^2/C18</f>
+        <f t="shared" si="0"/>
         <v>0.23684210526315788</v>
       </c>
     </row>
@@ -735,11 +735,11 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <f>(B11-B19)^2/B19</f>
+        <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="C26">
-        <f>(C11-C19)^2/C19</f>
+        <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
     </row>
